--- a/ipl/Sunrisers Hyderabad/Abdul Samad.xlsx
+++ b/ipl/Sunrisers Hyderabad/Abdul Samad.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -489,9 +489,299 @@
         <v>33rd Match (N), Dubai (DSC), September 22, 2021, Indian Premier League</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Abdul Samad</v>
+      </c>
+      <c r="B4" t="str">
+        <v>18</v>
+      </c>
+      <c r="C4" t="str">
+        <v>14</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <v>128.57</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Super Kings won by 6 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="I4" t="str">
+        <v>44th Match (N), Sharjah, September 30, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Abdul Samad</v>
+      </c>
+      <c r="B5" t="str">
+        <v>25</v>
+      </c>
+      <c r="C5" t="str">
+        <v>18</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>3</v>
+      </c>
+      <c r="F5" t="str">
+        <v>138.88</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H5" t="str">
+        <v>KKR won by 6 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="I5" t="str">
+        <v>49th Match (N), Dubai (DSC), October 03, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Abdul Samad</v>
+      </c>
+      <c r="B6" t="str">
+        <v>10</v>
+      </c>
+      <c r="C6" t="str">
+        <v>8</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>125.00</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Royals won by 55 runs</v>
+      </c>
+      <c r="I6" t="str">
+        <v>28th Match (D/N), Delhi, May 02, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Abdul Samad</v>
+      </c>
+      <c r="B7" t="str">
+        <v>28</v>
+      </c>
+      <c r="C7" t="str">
+        <v>21</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2</v>
+      </c>
+      <c r="E7" t="str">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <v>133.33</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Capitals won by 8 wickets (with 13 balls remaining)</v>
+      </c>
+      <c r="I7" t="str">
+        <v>33rd Match (N), Dubai (DSC), September 22, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Abdul Samad</v>
+      </c>
+      <c r="B8" t="str">
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <v>8</v>
+      </c>
+      <c r="D8" t="str">
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>87.50</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Mumbai won by 13 runs</v>
+      </c>
+      <c r="I8" t="str">
+        <v>9th Match (N), Chennai, April 17, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Abdul Samad</v>
+      </c>
+      <c r="B9" t="str">
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <v>3</v>
+      </c>
+      <c r="D9" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <v>33.33</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Sunrisers won by 4 runs</v>
+      </c>
+      <c r="I9" t="str">
+        <v>52nd Match (N), Abu Dhabi, October 06, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Abdul Samad</v>
+      </c>
+      <c r="B10" t="str">
+        <v>1</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2</v>
+      </c>
+      <c r="D10" t="str">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v>50.00</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Punjab Kings won by 5 runs</v>
+      </c>
+      <c r="I10" t="str">
+        <v>37th Match (N), Sharjah, September 25, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Abdul Samad</v>
+      </c>
+      <c r="B11" t="str">
+        <v>2</v>
+      </c>
+      <c r="C11" t="str">
+        <v>3</v>
+      </c>
+      <c r="D11" t="str">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v>66.66</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Mumbai won by 42 runs</v>
+      </c>
+      <c r="I11" t="str">
+        <v>55th Match (N), Abu Dhabi, October 08, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Abdul Samad</v>
+      </c>
+      <c r="B12" t="str">
+        <v>19</v>
+      </c>
+      <c r="C12" t="str">
+        <v>8</v>
+      </c>
+      <c r="D12" t="str">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2</v>
+      </c>
+      <c r="F12" t="str">
+        <v>237.50</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H12" t="str">
+        <v>KKR won by 10 runs</v>
+      </c>
+      <c r="I12" t="str">
+        <v>3rd Match (N), Chennai, April 11, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Abdul Samad</v>
+      </c>
+      <c r="B13" t="str">
+        <v>0</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2</v>
+      </c>
+      <c r="D13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="H13" t="str">
+        <v>RCB won by 6 runs</v>
+      </c>
+      <c r="I13" t="str">
+        <v>6th Match (N), Chennai, April 14, 2021, Indian Premier League</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I13"/>
   </ignoredErrors>
 </worksheet>
 </file>